--- a/SNC Alternatives Log.xlsx
+++ b/SNC Alternatives Log.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="How to Use" sheetId="2" r:id="rId1"/>
+    <sheet name="Log" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -96,32 +97,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,16 +154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -158,8 +172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9439275" y="0"/>
-          <a:ext cx="4257675" cy="762000"/>
+          <a:off x="19050" y="19050"/>
+          <a:ext cx="4857750" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -195,19 +209,37 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>How to Use</a:t>
+            <a:t>How to Use:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>We normally use the DailyQA3 (DQA3) device with SunCheck for nearly</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>This</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> all Elekta QA. If for some reason an alternative procedure is used, please add a log entry to this spreadsheet.</a:t>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> spreadsheet is a l</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>og of times when we had to use an alternative to Sun Nuclear DailyQA3 for daily QA on Elekta.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Technical/Implementation Details:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>The spreadsheet was created by Zach Carter and modified by Kaley White.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -217,20 +249,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Log" displayName="Log" ref="A1:F3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:F3"/>
   <sortState ref="A2:F3">
     <sortCondition ref="A1:A3"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" name="Machine" dataDxfId="2"/>
-    <tableColumn id="3" name="Task" dataDxfId="0"/>
-    <tableColumn id="4" name="SNC Alternative" dataDxfId="1"/>
-    <tableColumn id="5" name="Reason" dataDxfId="5"/>
-    <tableColumn id="6" name="SNC Restorative Action" dataDxfId="4"/>
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="Machine" dataDxfId="6"/>
+    <tableColumn id="3" name="Task" dataDxfId="5"/>
+    <tableColumn id="4" name="SNC Alternative" dataDxfId="4"/>
+    <tableColumn id="5" name="Reason" dataDxfId="3"/>
+    <tableColumn id="6" name="SNC Restorative Action" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -497,89 +529,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44592</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>44593</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Machine" error="Must be E1 or E2" sqref="B2:B1048576">
       <formula1>"E1,E2"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
